--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/182.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/182.xlsx
@@ -479,13 +479,13 @@
         <v>-5.875393577905004</v>
       </c>
       <c r="E2" t="n">
-        <v>-14.63980265915434</v>
+        <v>-14.66424598855984</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.1175192241464253</v>
+        <v>-0.09706904710764915</v>
       </c>
       <c r="G2" t="n">
-        <v>-11.09669820261222</v>
+        <v>-11.12928494438528</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-5.695777448746372</v>
       </c>
       <c r="E3" t="n">
-        <v>-14.79964658454897</v>
+        <v>-14.8216809302316</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.05512130880275883</v>
+        <v>-0.03188247125869505</v>
       </c>
       <c r="G3" t="n">
-        <v>-10.80815694028342</v>
+        <v>-10.83857035978475</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-5.453973860081035</v>
       </c>
       <c r="E4" t="n">
-        <v>-15.15629400626043</v>
+        <v>-15.18042312039773</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.01318666280071023</v>
+        <v>0.00819306773982844</v>
       </c>
       <c r="G4" t="n">
-        <v>-10.43683304708639</v>
+        <v>-10.46993038867027</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-5.166279756327767</v>
       </c>
       <c r="E5" t="n">
-        <v>-15.66045240408962</v>
+        <v>-15.68695122504128</v>
       </c>
       <c r="F5" t="n">
-        <v>0.107053046497702</v>
+        <v>0.1315749297202549</v>
       </c>
       <c r="G5" t="n">
-        <v>-10.24706011739557</v>
+        <v>-10.2815845199892</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-4.82039059791068</v>
       </c>
       <c r="E6" t="n">
-        <v>-16.14091373377529</v>
+        <v>-16.16927166173046</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1011615102189252</v>
+        <v>0.1245181784885646</v>
       </c>
       <c r="G6" t="n">
-        <v>-10.08504286972921</v>
+        <v>-10.12100742563543</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-4.425494524183209</v>
       </c>
       <c r="E7" t="n">
-        <v>-16.70126429540116</v>
+        <v>-16.73406051401968</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2194242817882368</v>
+        <v>0.2498769781980917</v>
       </c>
       <c r="G7" t="n">
-        <v>-9.938107954936516</v>
+        <v>-9.973771387877377</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-3.982275222574376</v>
       </c>
       <c r="E8" t="n">
-        <v>-17.27837300466445</v>
+        <v>-17.31493980650139</v>
       </c>
       <c r="F8" t="n">
-        <v>0.3766628389173669</v>
+        <v>0.4039602903423657</v>
       </c>
       <c r="G8" t="n">
-        <v>-9.733017030920877</v>
+        <v>-9.768549540833321</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-3.507625877228419</v>
       </c>
       <c r="E9" t="n">
-        <v>-17.99394590878182</v>
+        <v>-18.03538304727589</v>
       </c>
       <c r="F9" t="n">
-        <v>0.6459060468574634</v>
+        <v>0.6767907892610953</v>
       </c>
       <c r="G9" t="n">
-        <v>-9.768326971685012</v>
+        <v>-9.804474819831018</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-3.015938071237379</v>
       </c>
       <c r="E10" t="n">
-        <v>-18.47006059392404</v>
+        <v>-18.51431257752907</v>
       </c>
       <c r="F10" t="n">
-        <v>0.6969136587288283</v>
+        <v>0.7239623563998343</v>
       </c>
       <c r="G10" t="n">
-        <v>-9.425675221711357</v>
+        <v>-9.460317455030564</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-2.528796221885317</v>
       </c>
       <c r="E11" t="n">
-        <v>-19.06600912697656</v>
+        <v>-19.11370438622897</v>
       </c>
       <c r="F11" t="n">
-        <v>0.8224557506781395</v>
+        <v>0.8494913560463039</v>
       </c>
       <c r="G11" t="n">
-        <v>-9.375178209650819</v>
+        <v>-9.411195134768409</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-2.069700639199401</v>
       </c>
       <c r="E12" t="n">
-        <v>-19.61013832538154</v>
+        <v>-19.6590118918897</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9724542643357951</v>
+        <v>1.003024791471225</v>
       </c>
       <c r="G12" t="n">
-        <v>-8.882554130625193</v>
+        <v>-8.919055470947926</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-1.656390830091617</v>
       </c>
       <c r="E13" t="n">
-        <v>-20.41721333405975</v>
+        <v>-20.4684696996851</v>
       </c>
       <c r="F13" t="n">
-        <v>1.151871182478809</v>
+        <v>1.184680493400175</v>
       </c>
       <c r="G13" t="n">
-        <v>-8.379888255319964</v>
+        <v>-8.420958809334458</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-1.310683152959125</v>
       </c>
       <c r="E14" t="n">
-        <v>-21.24839127226956</v>
+        <v>-21.29996185316313</v>
       </c>
       <c r="F14" t="n">
-        <v>1.463742928471566</v>
+        <v>1.500270453399982</v>
       </c>
       <c r="G14" t="n">
-        <v>-7.910345906204299</v>
+        <v>-7.957006873532211</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-1.03837044438881</v>
       </c>
       <c r="E15" t="n">
-        <v>-22.06882042984633</v>
+        <v>-22.12167405641838</v>
       </c>
       <c r="F15" t="n">
-        <v>1.573142211017029</v>
+        <v>1.611188443075085</v>
       </c>
       <c r="G15" t="n">
-        <v>-7.458111581445397</v>
+        <v>-7.509695254641798</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-0.8415366030181629</v>
       </c>
       <c r="E16" t="n">
-        <v>-22.92960006478129</v>
+        <v>-22.98102663034359</v>
       </c>
       <c r="F16" t="n">
-        <v>1.847844909242125</v>
+        <v>1.887409848429821</v>
       </c>
       <c r="G16" t="n">
-        <v>-6.888386930984845</v>
+        <v>-6.936239297871355</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-0.7112171863815335</v>
       </c>
       <c r="E17" t="n">
-        <v>-23.54563219039303</v>
+        <v>-23.59582807948821</v>
       </c>
       <c r="F17" t="n">
-        <v>2.03689776227665</v>
+        <v>2.077064947395065</v>
       </c>
       <c r="G17" t="n">
-        <v>-6.798023856771252</v>
+        <v>-6.847512761512977</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-0.6389308325858136</v>
       </c>
       <c r="E18" t="n">
-        <v>-24.35447465995487</v>
+        <v>-24.40612379466548</v>
       </c>
       <c r="F18" t="n">
-        <v>2.442602042736057</v>
+        <v>2.487089687792242</v>
       </c>
       <c r="G18" t="n">
-        <v>-6.397307743694543</v>
+        <v>-6.446652633105008</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-0.6175808507352158</v>
       </c>
       <c r="E19" t="n">
-        <v>-25.19907220857746</v>
+        <v>-25.25309105010242</v>
       </c>
       <c r="F19" t="n">
-        <v>2.70620246815137</v>
+        <v>2.751370912955325</v>
       </c>
       <c r="G19" t="n">
-        <v>-6.099772069313476</v>
+        <v>-6.146799621120956</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-0.6427265014220742</v>
       </c>
       <c r="E20" t="n">
-        <v>-25.95204982191365</v>
+        <v>-26.00614721725566</v>
       </c>
       <c r="F20" t="n">
-        <v>2.928300293558411</v>
+        <v>2.973337815333948</v>
       </c>
       <c r="G20" t="n">
-        <v>-5.97328733155956</v>
+        <v>-6.026049312011716</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-0.7153582344222302</v>
       </c>
       <c r="E21" t="n">
-        <v>-26.53553448266085</v>
+        <v>-26.58985444715118</v>
       </c>
       <c r="F21" t="n">
-        <v>3.250135282013721</v>
+        <v>3.293418435208467</v>
       </c>
       <c r="G21" t="n">
-        <v>-5.65145234310425</v>
+        <v>-5.700718678697665</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-0.8353223616736877</v>
       </c>
       <c r="E22" t="n">
-        <v>-27.12082588120022</v>
+        <v>-27.17559098398716</v>
       </c>
       <c r="F22" t="n">
-        <v>3.465634586788532</v>
+        <v>3.505094787553495</v>
       </c>
       <c r="G22" t="n">
-        <v>-5.48959220307199</v>
+        <v>-5.545391597783428</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-1.00319806865853</v>
       </c>
       <c r="E23" t="n">
-        <v>-27.57401594406657</v>
+        <v>-27.62631969391926</v>
       </c>
       <c r="F23" t="n">
-        <v>3.649817103165934</v>
+        <v>3.688648873394494</v>
       </c>
       <c r="G23" t="n">
-        <v>-5.295904674831496</v>
+        <v>-5.349583116482572</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-1.214556582845477</v>
       </c>
       <c r="E24" t="n">
-        <v>-27.80190056732965</v>
+        <v>-27.85484584002159</v>
       </c>
       <c r="F24" t="n">
-        <v>3.784667822435713</v>
+        <v>3.823918546355208</v>
       </c>
       <c r="G24" t="n">
-        <v>-5.131635551076358</v>
+        <v>-5.186086438595097</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-1.465768141047711</v>
       </c>
       <c r="E25" t="n">
-        <v>-28.07336946675284</v>
+        <v>-28.12461274007536</v>
       </c>
       <c r="F25" t="n">
-        <v>4.098961644454189</v>
+        <v>4.138605137458935</v>
       </c>
       <c r="G25" t="n">
-        <v>-4.842596781239572</v>
+        <v>-4.895227838663311</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-1.746308834649458</v>
       </c>
       <c r="E26" t="n">
-        <v>-28.03417111204471</v>
+        <v>-28.08503470858482</v>
       </c>
       <c r="F26" t="n">
-        <v>4.250465772938643</v>
+        <v>4.29382747995044</v>
       </c>
       <c r="G26" t="n">
-        <v>-4.841510120103709</v>
+        <v>-4.896157392165073</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-2.050651423873796</v>
       </c>
       <c r="E27" t="n">
-        <v>-27.93038842741835</v>
+        <v>-27.97952383998335</v>
       </c>
       <c r="F27" t="n">
-        <v>4.209984372552026</v>
+        <v>4.250675249784111</v>
       </c>
       <c r="G27" t="n">
-        <v>-4.671336367766953</v>
+        <v>-4.720144472760908</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-2.368881326910049</v>
       </c>
       <c r="E28" t="n">
-        <v>-27.87516509403195</v>
+        <v>-27.92591085984648</v>
       </c>
       <c r="F28" t="n">
-        <v>4.199065391982026</v>
+        <v>4.235907132178643</v>
       </c>
       <c r="G28" t="n">
-        <v>-4.596422210906597</v>
+        <v>-4.641420455773609</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-2.695304595460904</v>
       </c>
       <c r="E29" t="n">
-        <v>-27.66965521632537</v>
+        <v>-27.71724573715505</v>
       </c>
       <c r="F29" t="n">
-        <v>4.189900779992819</v>
+        <v>4.22572132056778</v>
       </c>
       <c r="G29" t="n">
-        <v>-4.482034760978436</v>
+        <v>-4.524938237390772</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-3.025577069686556</v>
       </c>
       <c r="E30" t="n">
-        <v>-27.52742043825286</v>
+        <v>-27.57362317498131</v>
       </c>
       <c r="F30" t="n">
-        <v>4.100768382246347</v>
+        <v>4.133342031716562</v>
       </c>
       <c r="G30" t="n">
-        <v>-4.436316439455129</v>
+        <v>-4.478944977507789</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-3.354336144952399</v>
       </c>
       <c r="E31" t="n">
-        <v>-27.08747978586234</v>
+        <v>-27.13182341558727</v>
       </c>
       <c r="F31" t="n">
-        <v>3.960183234331892</v>
+        <v>3.990950146009949</v>
       </c>
       <c r="G31" t="n">
-        <v>-4.538737524585952</v>
+        <v>-4.576927771975266</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-3.683132777598408</v>
       </c>
       <c r="E32" t="n">
-        <v>-26.71637846181362</v>
+        <v>-26.75869278459808</v>
       </c>
       <c r="F32" t="n">
-        <v>3.878644372233623</v>
+        <v>3.907683099936571</v>
       </c>
       <c r="G32" t="n">
-        <v>-4.619988356021704</v>
+        <v>-4.657720372811558</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-4.005529454902415</v>
       </c>
       <c r="E33" t="n">
-        <v>-26.29678324803914</v>
+        <v>-26.33907138621791</v>
       </c>
       <c r="F33" t="n">
-        <v>3.746909621040175</v>
+        <v>3.775372287418088</v>
       </c>
       <c r="G33" t="n">
-        <v>-4.581562447181238</v>
+        <v>-4.609553790656848</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-4.322371583819225</v>
       </c>
       <c r="E34" t="n">
-        <v>-25.81393911923628</v>
+        <v>-25.85483947331383</v>
       </c>
       <c r="F34" t="n">
-        <v>3.623134989974496</v>
+        <v>3.649345780263632</v>
       </c>
       <c r="G34" t="n">
-        <v>-4.413562017116209</v>
+        <v>-4.437049608414266</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-4.627482489775604</v>
       </c>
       <c r="E35" t="n">
-        <v>-25.41309208313115</v>
+        <v>-25.4516358226972</v>
       </c>
       <c r="F35" t="n">
-        <v>3.382131879264003</v>
+        <v>3.409023469300908</v>
       </c>
       <c r="G35" t="n">
-        <v>-4.430660564627503</v>
+        <v>-4.449945526713366</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-4.916962890489889</v>
       </c>
       <c r="E36" t="n">
-        <v>-24.72342884633755</v>
+        <v>-24.76222133965758</v>
       </c>
       <c r="F36" t="n">
-        <v>3.176451801620487</v>
+        <v>3.198970562508256</v>
       </c>
       <c r="G36" t="n">
-        <v>-4.705703662726484</v>
+        <v>-4.722867671751987</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-5.187819965600297</v>
       </c>
       <c r="E37" t="n">
-        <v>-24.25050868308872</v>
+        <v>-24.28710166953135</v>
       </c>
       <c r="F37" t="n">
-        <v>3.043067420268982</v>
+        <v>3.066685934595455</v>
       </c>
       <c r="G37" t="n">
-        <v>-4.709670630487527</v>
+        <v>-4.723064056294613</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-5.433008788857118</v>
       </c>
       <c r="E38" t="n">
-        <v>-23.84037920426881</v>
+        <v>-23.87512617601075</v>
       </c>
       <c r="F38" t="n">
-        <v>2.972028585049776</v>
+        <v>2.99496629962848</v>
       </c>
       <c r="G38" t="n">
-        <v>-4.849156024963277</v>
+        <v>-4.864225265534103</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-5.652103728388735</v>
       </c>
       <c r="E39" t="n">
-        <v>-23.34355249603099</v>
+        <v>-23.37723899124275</v>
       </c>
       <c r="F39" t="n">
-        <v>2.942387611416108</v>
+        <v>2.965849018108481</v>
       </c>
       <c r="G39" t="n">
-        <v>-4.727829654529002</v>
+        <v>-4.740097142291699</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-5.837740958313568</v>
       </c>
       <c r="E40" t="n">
-        <v>-22.96337820611295</v>
+        <v>-22.99597804018885</v>
       </c>
       <c r="F40" t="n">
-        <v>3.019082321462939</v>
+        <v>3.047361695601067</v>
       </c>
       <c r="G40" t="n">
-        <v>-4.722239241215584</v>
+        <v>-4.731443130113318</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-5.990520325269171</v>
       </c>
       <c r="E41" t="n">
-        <v>-22.4347895711811</v>
+        <v>-22.46672169781207</v>
       </c>
       <c r="F41" t="n">
-        <v>3.044298096736104</v>
+        <v>3.069513872009268</v>
       </c>
       <c r="G41" t="n">
-        <v>-4.650663621579867</v>
+        <v>-4.6597104028435</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-6.109754548521169</v>
       </c>
       <c r="E42" t="n">
-        <v>-21.7658383574831</v>
+        <v>-21.79512583894005</v>
       </c>
       <c r="F42" t="n">
-        <v>3.143171167796819</v>
+        <v>3.167025343574444</v>
       </c>
       <c r="G42" t="n">
-        <v>-4.676101966001341</v>
+        <v>-4.685881916224111</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-6.196031054719059</v>
       </c>
       <c r="E43" t="n">
-        <v>-21.10420574107363</v>
+        <v>-21.13296953041691</v>
       </c>
       <c r="F43" t="n">
-        <v>3.260478201258684</v>
+        <v>3.284672776910194</v>
       </c>
       <c r="G43" t="n">
-        <v>-4.713401936797419</v>
+        <v>-4.725420670806123</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-6.255223908839419</v>
       </c>
       <c r="E44" t="n">
-        <v>-20.81940887735757</v>
+        <v>-20.84656231345131</v>
       </c>
       <c r="F44" t="n">
-        <v>3.17275977221912</v>
+        <v>3.194990502444371</v>
       </c>
       <c r="G44" t="n">
-        <v>-4.768847839332129</v>
+        <v>-4.77940023542256</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-6.289723922132151</v>
       </c>
       <c r="E45" t="n">
-        <v>-20.33911774760885</v>
+        <v>-20.36409786143086</v>
       </c>
       <c r="F45" t="n">
-        <v>3.293418435208467</v>
+        <v>3.317874856916811</v>
       </c>
       <c r="G45" t="n">
-        <v>-4.721244226199613</v>
+        <v>-4.730199361343353</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-6.30868102195362</v>
       </c>
       <c r="E46" t="n">
-        <v>-20.00820979328422</v>
+        <v>-20.03431584515062</v>
       </c>
       <c r="F46" t="n">
-        <v>3.323190331870552</v>
+        <v>3.347096876859544</v>
       </c>
       <c r="G46" t="n">
-        <v>-4.712655675535441</v>
+        <v>-4.715824012823139</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-6.316599818578157</v>
       </c>
       <c r="E47" t="n">
-        <v>-19.47256440712068</v>
+        <v>-19.49586870617896</v>
       </c>
       <c r="F47" t="n">
-        <v>3.334056943229185</v>
+        <v>3.356811365568105</v>
       </c>
       <c r="G47" t="n">
-        <v>-4.988039173508307</v>
+        <v>-4.989335311489637</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-6.320950388773021</v>
       </c>
       <c r="E48" t="n">
-        <v>-18.99994536683721</v>
+        <v>-19.02239866621077</v>
       </c>
       <c r="F48" t="n">
-        <v>3.26817647532962</v>
+        <v>3.289307452116165</v>
       </c>
       <c r="G48" t="n">
-        <v>-5.104743961039453</v>
+        <v>-5.105542591512799</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-6.328163731741063</v>
       </c>
       <c r="E49" t="n">
-        <v>-18.60265943710504</v>
+        <v>-18.62888331969701</v>
       </c>
       <c r="F49" t="n">
-        <v>3.288443360128611</v>
+        <v>3.309129198618538</v>
       </c>
       <c r="G49" t="n">
-        <v>-5.388650548162283</v>
+        <v>-5.391072624188002</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-6.339806561482493</v>
       </c>
       <c r="E50" t="n">
-        <v>-18.09150974955837</v>
+        <v>-18.11648986338038</v>
       </c>
       <c r="F50" t="n">
-        <v>3.418659404192419</v>
+        <v>3.443377671957597</v>
       </c>
       <c r="G50" t="n">
-        <v>-5.326265725121458</v>
+        <v>-5.320753865625091</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-6.361704562503103</v>
       </c>
       <c r="E51" t="n">
-        <v>-17.42355355087635</v>
+        <v>-17.44968578734843</v>
       </c>
       <c r="F51" t="n">
-        <v>3.430887615046591</v>
+        <v>3.457386435998245</v>
       </c>
       <c r="G51" t="n">
-        <v>-5.539644076835909</v>
+        <v>-5.533935832796917</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-6.392694916630091</v>
       </c>
       <c r="E52" t="n">
-        <v>-17.03335055698154</v>
+        <v>-17.05874962449449</v>
       </c>
       <c r="F52" t="n">
-        <v>3.266160260691993</v>
+        <v>3.29032865173782</v>
       </c>
       <c r="G52" t="n">
-        <v>-5.813024452473991</v>
+        <v>-5.814019467489962</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-6.435395228085543</v>
       </c>
       <c r="E53" t="n">
-        <v>-16.63920677993138</v>
+        <v>-16.66612455457397</v>
       </c>
       <c r="F53" t="n">
-        <v>3.30496584631487</v>
+        <v>3.327589345625372</v>
       </c>
       <c r="G53" t="n">
-        <v>-5.846710947685753</v>
+        <v>-5.846396732417551</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-6.48893772852496</v>
       </c>
       <c r="E54" t="n">
-        <v>-16.43272807181452</v>
+        <v>-16.46320695283006</v>
       </c>
       <c r="F54" t="n">
-        <v>3.042674651183729</v>
+        <v>3.064276950872578</v>
       </c>
       <c r="G54" t="n">
-        <v>-6.03063161800632</v>
+        <v>-6.027712034472616</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-6.553967528240324</v>
       </c>
       <c r="E55" t="n">
-        <v>-16.13673728916877</v>
+        <v>-16.16935021554751</v>
       </c>
       <c r="F55" t="n">
-        <v>2.893579506422153</v>
+        <v>2.915836421253088</v>
       </c>
       <c r="G55" t="n">
-        <v>-6.181913177342465</v>
+        <v>-6.175746702704012</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-6.633106803231433</v>
       </c>
       <c r="E56" t="n">
-        <v>-15.79805250695616</v>
+        <v>-15.83418726279933</v>
       </c>
       <c r="F56" t="n">
-        <v>2.839743957136975</v>
+        <v>2.862027056573593</v>
       </c>
       <c r="G56" t="n">
-        <v>-6.478349098284827</v>
+        <v>-6.477340990966014</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-6.724215936055367</v>
       </c>
       <c r="E57" t="n">
-        <v>-15.25218203227323</v>
+        <v>-15.28802875745388</v>
       </c>
       <c r="F57" t="n">
-        <v>2.866530808751147</v>
+        <v>2.892505937589132</v>
       </c>
       <c r="G57" t="n">
-        <v>-6.737000633225967</v>
+        <v>-6.735547387610535</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-6.832138030919677</v>
       </c>
       <c r="E58" t="n">
-        <v>-15.04436790926652</v>
+        <v>-15.08238795671889</v>
       </c>
       <c r="F58" t="n">
-        <v>2.705914437488852</v>
+        <v>2.732779842920074</v>
       </c>
       <c r="G58" t="n">
-        <v>-6.710554181485681</v>
+        <v>-6.709965027857803</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-6.954091361108595</v>
       </c>
       <c r="E59" t="n">
-        <v>-14.6961126536766</v>
+        <v>-14.73557285444157</v>
       </c>
       <c r="F59" t="n">
-        <v>2.822776332654099</v>
+        <v>2.853098106035536</v>
       </c>
       <c r="G59" t="n">
-        <v>-6.823828785672294</v>
+        <v>-6.822008955577294</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-7.092222411788454</v>
       </c>
       <c r="E60" t="n">
-        <v>-14.63367546142441</v>
+        <v>-14.67572793815204</v>
       </c>
       <c r="F60" t="n">
-        <v>2.641762153564394</v>
+        <v>2.672057742340148</v>
       </c>
       <c r="G60" t="n">
-        <v>-6.823383647375675</v>
+        <v>-6.823488385798409</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-7.244933949915771</v>
       </c>
       <c r="E61" t="n">
-        <v>-14.29137720362748</v>
+        <v>-14.33270960369881</v>
       </c>
       <c r="F61" t="n">
-        <v>2.526837919219723</v>
+        <v>2.557473907869361</v>
       </c>
       <c r="G61" t="n">
-        <v>-7.22148129988404</v>
+        <v>-7.22512096007404</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-7.410991294766316</v>
       </c>
       <c r="E62" t="n">
-        <v>-14.07352128434116</v>
+        <v>-14.11917414435026</v>
       </c>
       <c r="F62" t="n">
-        <v>2.476720583941595</v>
+        <v>2.508849095115191</v>
       </c>
       <c r="G62" t="n">
-        <v>-7.178748023408646</v>
+        <v>-7.178014854449509</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-7.591446781137247</v>
       </c>
       <c r="E63" t="n">
-        <v>-13.75357158749506</v>
+        <v>-13.79961721658941</v>
       </c>
       <c r="F63" t="n">
-        <v>2.404765287523469</v>
+        <v>2.436736691062964</v>
       </c>
       <c r="G63" t="n">
-        <v>-7.370275321680257</v>
+        <v>-7.373234182122487</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-7.781833715624126</v>
       </c>
       <c r="E64" t="n">
-        <v>-13.55950438247216</v>
+        <v>-13.60812919522633</v>
       </c>
       <c r="F64" t="n">
-        <v>2.313066798420019</v>
+        <v>2.346268878426637</v>
       </c>
       <c r="G64" t="n">
-        <v>-7.406842123517198</v>
+        <v>-7.402128894494177</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-7.985216186558635</v>
       </c>
       <c r="E65" t="n">
-        <v>-13.36723082293857</v>
+        <v>-13.41687683531439</v>
       </c>
       <c r="F65" t="n">
-        <v>2.090235804053842</v>
+        <v>2.115844348412258</v>
       </c>
       <c r="G65" t="n">
-        <v>-7.740460184530062</v>
+        <v>-7.740983876643731</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-8.196070905579107</v>
       </c>
       <c r="E66" t="n">
-        <v>-13.14927016522951</v>
+        <v>-13.19985882340994</v>
       </c>
       <c r="F66" t="n">
-        <v>2.023438874955355</v>
+        <v>2.049178342342189</v>
       </c>
       <c r="G66" t="n">
-        <v>-7.793575657158944</v>
+        <v>-7.790564427505347</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-8.414791667179516</v>
       </c>
       <c r="E67" t="n">
-        <v>-12.9782323209052</v>
+        <v>-13.02933157889646</v>
       </c>
       <c r="F67" t="n">
-        <v>2.27203552131405</v>
+        <v>2.30806553873448</v>
       </c>
       <c r="G67" t="n">
-        <v>-7.858277817802755</v>
+        <v>-7.860477324680165</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-8.63771371423999</v>
       </c>
       <c r="E68" t="n">
-        <v>-12.92362432575236</v>
+        <v>-12.97658269074714</v>
       </c>
       <c r="F68" t="n">
-        <v>1.999479960754996</v>
+        <v>2.028544873063628</v>
       </c>
       <c r="G68" t="n">
-        <v>-7.771646049899053</v>
+        <v>-7.76866100485114</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-8.860110004600278</v>
       </c>
       <c r="E69" t="n">
-        <v>-12.78233219348445</v>
+        <v>-12.83567023526165</v>
       </c>
       <c r="F69" t="n">
-        <v>2.038259361772189</v>
+        <v>2.075153471180173</v>
       </c>
       <c r="G69" t="n">
-        <v>-7.843994115402431</v>
+        <v>-7.840995978051676</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-9.079446185368134</v>
       </c>
       <c r="E70" t="n">
-        <v>-12.75047862067053</v>
+        <v>-12.80737776882068</v>
       </c>
       <c r="F70" t="n">
-        <v>2.042579821709959</v>
+        <v>2.077222055029166</v>
       </c>
       <c r="G70" t="n">
-        <v>-7.756799378476535</v>
+        <v>-7.752308718601824</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-9.285757055101497</v>
       </c>
       <c r="E71" t="n">
-        <v>-12.44906762464832</v>
+        <v>-12.50421240421767</v>
       </c>
       <c r="F71" t="n">
-        <v>1.996049777410464</v>
+        <v>2.031477548900175</v>
       </c>
       <c r="G71" t="n">
-        <v>-7.482803664604893</v>
+        <v>-7.471570468766692</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-9.475540964810696</v>
       </c>
       <c r="E72" t="n">
-        <v>-12.38255872621235</v>
+        <v>-12.43715362906235</v>
       </c>
       <c r="F72" t="n">
-        <v>2.009875249211327</v>
+        <v>2.043312990669095</v>
       </c>
       <c r="G72" t="n">
-        <v>-7.540409797108487</v>
+        <v>-7.532017630986941</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-9.63749882262392</v>
       </c>
       <c r="E73" t="n">
-        <v>-12.10078618445272</v>
+        <v>-12.14218404603826</v>
       </c>
       <c r="F73" t="n">
-        <v>1.985654488954134</v>
+        <v>2.019223153440319</v>
       </c>
       <c r="G73" t="n">
-        <v>-7.291878612264001</v>
+        <v>-7.276639171756232</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-9.763907265005647</v>
       </c>
       <c r="E74" t="n">
-        <v>-12.30191014070732</v>
+        <v>-12.34358294065253</v>
       </c>
       <c r="F74" t="n">
-        <v>2.012205679117154</v>
+        <v>2.044726959376002</v>
       </c>
       <c r="G74" t="n">
-        <v>-7.233696418435371</v>
+        <v>-7.221363469158464</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-9.847956038690183</v>
       </c>
       <c r="E75" t="n">
-        <v>-12.43420786092296</v>
+        <v>-12.4760770454108</v>
       </c>
       <c r="F75" t="n">
-        <v>1.944204258157229</v>
+        <v>1.976725538416077</v>
       </c>
       <c r="G75" t="n">
-        <v>-7.154841478419654</v>
+        <v>-7.145166266619619</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-9.879484414909319</v>
       </c>
       <c r="E76" t="n">
-        <v>-12.70208946936751</v>
+        <v>-12.74034517827104</v>
       </c>
       <c r="F76" t="n">
-        <v>1.929881278848381</v>
+        <v>1.960333975258236</v>
       </c>
       <c r="G76" t="n">
-        <v>-6.825805723401395</v>
+        <v>-6.809217775700928</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-9.855669141194035</v>
       </c>
       <c r="E77" t="n">
-        <v>-13.28201302374177</v>
+        <v>-13.31857982557871</v>
       </c>
       <c r="F77" t="n">
-        <v>1.920559559225072</v>
+        <v>1.951876347622481</v>
       </c>
       <c r="G77" t="n">
-        <v>-6.755473872535642</v>
+        <v>-6.744109753669024</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-9.768907091634714</v>
       </c>
       <c r="E78" t="n">
-        <v>-13.7785909782256</v>
+        <v>-13.81344268839027</v>
       </c>
       <c r="F78" t="n">
-        <v>1.968451203020106</v>
+        <v>2.000789191039169</v>
       </c>
       <c r="G78" t="n">
-        <v>-6.753221996446865</v>
+        <v>-6.748836074994887</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-9.619039085981473</v>
       </c>
       <c r="E79" t="n">
-        <v>-14.26794198154079</v>
+        <v>-14.30247947643727</v>
       </c>
       <c r="F79" t="n">
-        <v>2.015164539559384</v>
+        <v>2.046847912436361</v>
       </c>
       <c r="G79" t="n">
-        <v>-6.647436189485719</v>
+        <v>-6.646637559012373</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-9.406522191428289</v>
       </c>
       <c r="E80" t="n">
-        <v>-14.81749139332225</v>
+        <v>-14.8515837499221</v>
       </c>
       <c r="F80" t="n">
-        <v>1.915977253230468</v>
+        <v>1.943183058535574</v>
       </c>
       <c r="G80" t="n">
-        <v>-6.305713993013827</v>
+        <v>-6.301040040899331</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-9.133891856871704</v>
       </c>
       <c r="E81" t="n">
-        <v>-15.59101082981711</v>
+        <v>-15.62454021739477</v>
       </c>
       <c r="F81" t="n">
-        <v>2.010398941324996</v>
+        <v>2.039280561393844</v>
       </c>
       <c r="G81" t="n">
-        <v>-6.240789263221707</v>
+        <v>-6.238733771675556</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-8.813125322693093</v>
       </c>
       <c r="E82" t="n">
-        <v>-16.32304075860653</v>
+        <v>-16.35541802353412</v>
       </c>
       <c r="F82" t="n">
-        <v>1.989137041510033</v>
+        <v>2.015164539559384</v>
       </c>
       <c r="G82" t="n">
-        <v>-6.141968561372359</v>
+        <v>-6.139206085472755</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-8.451947927005925</v>
       </c>
       <c r="E83" t="n">
-        <v>-17.1986932495697</v>
+        <v>-17.23143709897686</v>
       </c>
       <c r="F83" t="n">
-        <v>1.967246711158667</v>
+        <v>1.99442633185809</v>
       </c>
       <c r="G83" t="n">
-        <v>-5.850848115383738</v>
+        <v>-5.846475286234601</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-8.069330119628233</v>
       </c>
       <c r="E84" t="n">
-        <v>-18.25444345842365</v>
+        <v>-18.28641486196315</v>
       </c>
       <c r="F84" t="n">
-        <v>1.987984918859961</v>
+        <v>2.011865279243269</v>
       </c>
       <c r="G84" t="n">
-        <v>-5.730595313782485</v>
+        <v>-5.729718129492088</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-7.679899299040181</v>
       </c>
       <c r="E85" t="n">
-        <v>-19.05516870022361</v>
+        <v>-19.08655095013523</v>
       </c>
       <c r="F85" t="n">
-        <v>2.010320387507946</v>
+        <v>2.035798008837945</v>
       </c>
       <c r="G85" t="n">
-        <v>-5.584969629273965</v>
+        <v>-5.587300059179793</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-7.302963799577197</v>
       </c>
       <c r="E86" t="n">
-        <v>-20.19647710814824</v>
+        <v>-20.23063492626231</v>
       </c>
       <c r="F86" t="n">
-        <v>1.998956268641328</v>
+        <v>2.024093490097441</v>
       </c>
       <c r="G86" t="n">
-        <v>-5.251521768198044</v>
+        <v>-5.251966906494663</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-6.9572111189883</v>
       </c>
       <c r="E87" t="n">
-        <v>-21.26166686735107</v>
+        <v>-21.2961258084305</v>
       </c>
       <c r="F87" t="n">
-        <v>1.845252633279463</v>
+        <v>1.861225242746369</v>
       </c>
       <c r="G87" t="n">
-        <v>-4.900883713490936</v>
+        <v>-4.897257145603779</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-6.657444475599298</v>
       </c>
       <c r="E88" t="n">
-        <v>-22.60599761544235</v>
+        <v>-22.63952700302001</v>
       </c>
       <c r="F88" t="n">
-        <v>1.934594507871402</v>
+        <v>1.952504778158883</v>
       </c>
       <c r="G88" t="n">
-        <v>-4.661648063664076</v>
+        <v>-4.661739709783968</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-6.421751286793416</v>
       </c>
       <c r="E89" t="n">
-        <v>-23.9965703771706</v>
+        <v>-24.0261589815929</v>
       </c>
       <c r="F89" t="n">
-        <v>1.792700129672775</v>
+        <v>1.813935844882055</v>
       </c>
       <c r="G89" t="n">
-        <v>-4.282089111979595</v>
+        <v>-4.280112174250495</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-6.256596205671448</v>
       </c>
       <c r="E90" t="n">
-        <v>-25.46787027822094</v>
+        <v>-25.49656860605</v>
       </c>
       <c r="F90" t="n">
-        <v>1.58581556016782</v>
+        <v>1.604066230329186</v>
       </c>
       <c r="G90" t="n">
-        <v>-4.159479695866831</v>
+        <v>-4.161155510630572</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-6.172358182286287</v>
       </c>
       <c r="E91" t="n">
-        <v>-27.11243371507867</v>
+        <v>-27.14064762770259</v>
       </c>
       <c r="F91" t="n">
-        <v>1.385398588266677</v>
+        <v>1.401816336030201</v>
       </c>
       <c r="G91" t="n">
-        <v>-4.065162746195036</v>
+        <v>-4.063984438939281</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-6.167490794640899</v>
       </c>
       <c r="E92" t="n">
-        <v>-28.71817847401069</v>
+        <v>-28.74145658846328</v>
       </c>
       <c r="F92" t="n">
-        <v>1.266887062943373</v>
+        <v>1.281550442126106</v>
       </c>
       <c r="G92" t="n">
-        <v>-3.798014306709616</v>
+        <v>-3.795736246015156</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-6.241626694992752</v>
       </c>
       <c r="E93" t="n">
-        <v>-30.57207474100478</v>
+        <v>-30.59332354851691</v>
       </c>
       <c r="F93" t="n">
-        <v>1.129836836796184</v>
+        <v>1.143780139322622</v>
       </c>
       <c r="G93" t="n">
-        <v>-3.794453200336666</v>
+        <v>-3.789831617433537</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-6.385868699617515</v>
       </c>
       <c r="E94" t="n">
-        <v>-32.65669666097862</v>
+        <v>-32.67501279265419</v>
       </c>
       <c r="F94" t="n">
-        <v>1.018630816458563</v>
+        <v>1.031539827060505</v>
       </c>
       <c r="G94" t="n">
-        <v>-3.793301077686595</v>
+        <v>-3.786676372448681</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-6.589916957462077</v>
       </c>
       <c r="E95" t="n">
-        <v>-34.6941731984194</v>
+        <v>-34.709674484984</v>
       </c>
       <c r="F95" t="n">
-        <v>0.6136597049582921</v>
+        <v>0.6268829308284355</v>
       </c>
       <c r="G95" t="n">
-        <v>-3.780653913141487</v>
+        <v>-3.773178208218861</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-6.847795287641548</v>
       </c>
       <c r="E96" t="n">
-        <v>-36.6699064356586</v>
+        <v>-36.68320821534579</v>
       </c>
       <c r="F96" t="n">
-        <v>0.3838243285717911</v>
+        <v>0.3996660150102796</v>
       </c>
       <c r="G96" t="n">
-        <v>-3.989842727946586</v>
+        <v>-3.984042837787702</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-7.141559139537694</v>
       </c>
       <c r="E97" t="n">
-        <v>-38.76337875235343</v>
+        <v>-38.77457267128311</v>
       </c>
       <c r="F97" t="n">
-        <v>0.007865760168785287</v>
+        <v>0.0211806321588207</v>
       </c>
       <c r="G97" t="n">
-        <v>-3.996323417853241</v>
+        <v>-3.986412544602054</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-7.476188428402368</v>
       </c>
       <c r="E98" t="n">
-        <v>-40.99920367784636</v>
+        <v>-41.00475481425125</v>
       </c>
       <c r="F98" t="n">
-        <v>-0.2075026215776085</v>
+        <v>-0.1917133043504869</v>
       </c>
       <c r="G98" t="n">
-        <v>-4.197185528051002</v>
+        <v>-4.186973531834456</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-7.827831868568904</v>
       </c>
       <c r="E99" t="n">
-        <v>-43.383037086965</v>
+        <v>-43.3865196395209</v>
       </c>
       <c r="F99" t="n">
-        <v>-0.1278359587857054</v>
+        <v>-0.1122430261012097</v>
       </c>
       <c r="G99" t="n">
-        <v>-4.525108437327715</v>
+        <v>-4.515328487104945</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-8.217305522226624</v>
       </c>
       <c r="E100" t="n">
-        <v>-45.79662930044289</v>
+        <v>-45.79647219280879</v>
       </c>
       <c r="F100" t="n">
-        <v>-0.3832275103192558</v>
+        <v>-0.3733559139765943</v>
       </c>
       <c r="G100" t="n">
-        <v>-4.714973013138426</v>
+        <v>-4.702365125501844</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-8.603519290109876</v>
       </c>
       <c r="E101" t="n">
-        <v>-48.19575451928066</v>
+        <v>-48.1953879348011</v>
       </c>
       <c r="F101" t="n">
-        <v>-0.3289860996459847</v>
+        <v>-0.3149380586968126</v>
       </c>
       <c r="G101" t="n">
-        <v>-5.000804168778989</v>
+        <v>-4.984504251741041</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-9.045509076628644</v>
       </c>
       <c r="E102" t="n">
-        <v>-50.41997966445582</v>
+        <v>-50.41613052742036</v>
       </c>
       <c r="F102" t="n">
-        <v>-0.4732109077504391</v>
+        <v>-0.4602233433314468</v>
       </c>
       <c r="G102" t="n">
-        <v>-5.354911683739155</v>
+        <v>-5.340431596796206</v>
       </c>
     </row>
   </sheetData>
